--- a/StructureDefinition-us-core-patient.xlsx
+++ b/StructureDefinition-us-core-patient.xlsx
@@ -75,7 +75,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>null (mailto:ehaas@healthedatainc.com)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
